--- a/Applied_Optimization_Models/Lab_Limenitiz/kurs/kr_3/calc.xlsx
+++ b/Applied_Optimization_Models/Lab_Limenitiz/kurs/kr_3/calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studies\SUAI_5sem\Applied_Optimization_Models\Lab_Limenitiz\kurs\kr_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\Applied_Optimization_Models\Lab_Limenitiz\kurs\kr_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77ABD3-F194-4866-A55F-16F791CA1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC46172-BEB2-438F-9D4E-79D0E6D5E9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1890" windowWidth="15930" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,19 +70,12 @@
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Сумма</t>
   </si>
@@ -124,51 +117,6 @@
   </si>
   <si>
     <t>х3+х6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменяемые ячейки для 3-го этапа </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>1.111</t>
-  </si>
-  <si>
-    <t>0.9411</t>
-  </si>
-  <si>
-    <t>0.7611</t>
-  </si>
-  <si>
-    <t>1.2611</t>
-  </si>
-  <si>
-    <t>1.811</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>4.41</t>
-  </si>
-  <si>
-    <t>6.21</t>
   </si>
 </sst>
 </file>
@@ -354,9 +302,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -368,6 +313,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% — акцент3" xfId="1" builtinId="38"/>
@@ -654,20 +602,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="3.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -675,128 +623,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G2" s="14" t="n">
+        <v>34.0</v>
       </c>
       <c r="I2">
         <f>SUMPRODUCT(B2:G2,B6:G6)</f>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>22</v>
+      <c r="B3" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>1.8</v>
       </c>
       <c r="I3">
         <f>SUMPRODUCT(B3:G3,B6:G6)</f>
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="B4" s="9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I4" s="1">
         <f>SUMPRODUCT(B4:G4,B6:G6)</f>
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
       </c>
       <c r="I6">
         <f>D6+G6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -817,11 +765,6 @@
       </c>
       <c r="I7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
